--- a/スケジュール表.xlsx
+++ b/スケジュール表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurumi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B62F1D5-A7D0-D645-B2DA-60ADC1714731}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CAD855-AB42-1746-AA2A-68EE0B1A2299}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="16">
   <si>
     <t>残日数</t>
   </si>
@@ -83,191 +83,6 @@
     <t>工程</t>
     <rPh sb="0" eb="2">
       <t>コウテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ユーザー登録機能</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>createUserAction</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>天野</t>
-    <rPh sb="0" eb="2">
-      <t>アマノ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ログイン認証機能</t>
-    <rPh sb="0" eb="2">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>createUserCompleteAction</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>LoginAction</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>GoLoginAction</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>大澤</t>
-    <rPh sb="0" eb="2">
-      <t>オオザワ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>パスワード再設定機能</t>
-    <rPh sb="0" eb="3">
-      <t>サイセッテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ResultPasswordAction</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ResultPasswordConfirmAction</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>商品一覧機能</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>商品詳細機能</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>商品検索機能</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>カート機能</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>宛先情報選択機能</t>
-    <rPh sb="0" eb="2">
-      <t>アテサキ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>宛先情報登録機能</t>
-    <rPh sb="0" eb="2">
-      <t>アテサキ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>決済完了</t>
-    <rPh sb="0" eb="2">
-      <t>ケッサイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>マイページ機能</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>商品購入履歴機能</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ログアウト機能</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>井上</t>
-    <rPh sb="0" eb="2">
-      <t>イノウエ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>尼野</t>
-    <rPh sb="0" eb="2">
-      <t>アマノ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>具志堅</t>
-    <rPh sb="0" eb="2">
-      <t>グシケン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>石岡</t>
-    <rPh sb="0" eb="2">
-      <t>イシオカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>宮崎</t>
-    <rPh sb="0" eb="2">
-      <t>ミヤザキ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>平松</t>
-    <rPh sb="0" eb="2">
-      <t>ヒラマツ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>白石</t>
-    <rPh sb="0" eb="2">
-      <t>シライシ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>管理者画面</t>
-    <rPh sb="0" eb="2">
-      <t>カンリシャ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -948,28 +763,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -978,41 +775,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1020,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1029,56 +829,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1092,41 +868,80 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8810,7 +8625,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8827,10 +8642,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="1"/>
       <c r="D1" s="25"/>
       <c r="E1" s="2"/>
@@ -8959,25 +8774,25 @@
       </c>
     </row>
     <row r="2" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="94" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -8986,7 +8801,7 @@
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="98" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="7">
@@ -9115,20 +8930,20 @@
       </c>
     </row>
     <row r="3" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="40"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="11" t="str">
         <f t="shared" ref="K3:AO3" si="2">TEXT(K2,"ddd")</f>
         <v>Sun</v>
@@ -9269,10 +9084,10 @@
       <c r="F4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -9306,16 +9121,16 @@
       <c r="AO4" s="8"/>
     </row>
     <row r="5" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="40"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="40"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="40"/>
+      <c r="J5" s="47"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -9353,22 +9168,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="43"/>
-      <c r="C6" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>18</v>
-      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="53"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="89"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -9402,18 +9211,16 @@
       <c r="AO6" s="8"/>
     </row>
     <row r="7" spans="1:41" ht="45" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="40"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="46"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="40"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -9450,23 +9257,17 @@
       <c r="A8" s="43">
         <v>2</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="93" t="s">
-        <v>23</v>
-      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="39"/>
+      <c r="J8" s="89"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -9500,18 +9301,16 @@
       <c r="AO8" s="8"/>
     </row>
     <row r="9" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="40"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="46"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="40"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -9548,23 +9347,17 @@
       <c r="A10" s="43">
         <v>3</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>37</v>
-      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="39"/>
+      <c r="J10" s="89"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -9598,18 +9391,16 @@
       <c r="AO10" s="8"/>
     </row>
     <row r="11" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="40"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="40"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="40"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -9647,20 +9438,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="43"/>
-      <c r="C12" s="92" t="s">
-        <v>27</v>
-      </c>
+      <c r="C12" s="65"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="93" t="s">
-        <v>38</v>
-      </c>
+      <c r="E12" s="64"/>
       <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="41"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="39"/>
+      <c r="J12" s="89"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -9694,16 +9481,16 @@
       <c r="AO12" s="8"/>
     </row>
     <row r="13" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A13" s="40"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="40"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="40"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="40"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -9740,21 +9527,17 @@
       <c r="A14" s="43">
         <v>5</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="96" t="s">
-        <v>28</v>
-      </c>
+      <c r="B14" s="93"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="93" t="s">
-        <v>38</v>
-      </c>
+      <c r="E14" s="64"/>
       <c r="F14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="41"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="39"/>
+      <c r="J14" s="89"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -9788,16 +9571,16 @@
       <c r="AO14" s="8"/>
     </row>
     <row r="15" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="40"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="40"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -9834,21 +9617,17 @@
       <c r="A16" s="43">
         <v>6</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="97" t="s">
-        <v>29</v>
-      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="93" t="s">
-        <v>39</v>
-      </c>
+      <c r="E16" s="64"/>
       <c r="F16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="41"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="39"/>
+      <c r="J16" s="89"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -9882,16 +9661,16 @@
       <c r="AO16" s="8"/>
     </row>
     <row r="17" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="40"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="40"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="40"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -9928,21 +9707,17 @@
       <c r="A18" s="43">
         <v>7</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="96" t="s">
-        <v>30</v>
-      </c>
+      <c r="B18" s="93"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="93" t="s">
-        <v>41</v>
-      </c>
+      <c r="E18" s="64"/>
       <c r="F18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="39"/>
+      <c r="J18" s="89"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -9976,16 +9751,16 @@
       <c r="AO18" s="8"/>
     </row>
     <row r="19" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="40"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="40"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="40"/>
+      <c r="J19" s="47"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -10022,21 +9797,17 @@
       <c r="A20" s="43">
         <v>8</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="98" t="s">
-        <v>31</v>
-      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="93" t="s">
-        <v>41</v>
-      </c>
+      <c r="E20" s="64"/>
       <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="41"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="39"/>
+      <c r="J20" s="89"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -10070,16 +9841,16 @@
       <c r="AO20" s="8"/>
     </row>
     <row r="21" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="40"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="40"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -10117,20 +9888,16 @@
         <v>9</v>
       </c>
       <c r="B22" s="43"/>
-      <c r="C22" s="92" t="s">
-        <v>32</v>
-      </c>
+      <c r="C22" s="65"/>
       <c r="D22" s="26"/>
-      <c r="E22" s="93" t="s">
-        <v>42</v>
-      </c>
+      <c r="E22" s="64"/>
       <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="41"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="39"/>
+      <c r="J22" s="89"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -10164,16 +9931,16 @@
       <c r="AO22" s="8"/>
     </row>
     <row r="23" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A23" s="40"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="40"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="40"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="40"/>
+      <c r="J23" s="47"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -10211,20 +9978,16 @@
         <v>10</v>
       </c>
       <c r="B24" s="43"/>
-      <c r="C24" s="92" t="s">
-        <v>33</v>
-      </c>
+      <c r="C24" s="65"/>
       <c r="D24" s="26"/>
-      <c r="E24" s="93" t="s">
-        <v>41</v>
-      </c>
+      <c r="E24" s="64"/>
       <c r="F24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="41"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="39"/>
+      <c r="J24" s="89"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -10258,16 +10021,16 @@
       <c r="AO24" s="8"/>
     </row>
     <row r="25" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A25" s="40"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="40"/>
+      <c r="G25" s="47"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="40"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -10305,20 +10068,16 @@
         <v>11</v>
       </c>
       <c r="B26" s="43"/>
-      <c r="C26" s="92" t="s">
-        <v>34</v>
-      </c>
+      <c r="C26" s="65"/>
       <c r="D26" s="26"/>
-      <c r="E26" s="93" t="s">
-        <v>39</v>
-      </c>
+      <c r="E26" s="64"/>
       <c r="F26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="41"/>
+      <c r="G26" s="75"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="39"/>
+      <c r="J26" s="89"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -10352,16 +10111,16 @@
       <c r="AO26" s="8"/>
     </row>
     <row r="27" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A27" s="40"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
       <c r="D27" s="27"/>
-      <c r="E27" s="40"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="40"/>
+      <c r="G27" s="47"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="40"/>
+      <c r="J27" s="47"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -10399,20 +10158,16 @@
         <v>12</v>
       </c>
       <c r="B28" s="43"/>
-      <c r="C28" s="92" t="s">
-        <v>35</v>
-      </c>
+      <c r="C28" s="65"/>
       <c r="D28" s="26"/>
-      <c r="E28" s="93" t="s">
-        <v>43</v>
-      </c>
+      <c r="E28" s="64"/>
       <c r="F28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="41"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="39"/>
+      <c r="J28" s="89"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -10446,16 +10201,16 @@
       <c r="AO28" s="8"/>
     </row>
     <row r="29" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A29" s="40"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
       <c r="D29" s="27"/>
-      <c r="E29" s="40"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="40"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="40"/>
+      <c r="J29" s="47"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -10493,20 +10248,16 @@
         <v>13</v>
       </c>
       <c r="B30" s="43"/>
-      <c r="C30" s="92" t="s">
-        <v>36</v>
-      </c>
+      <c r="C30" s="65"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="93" t="s">
-        <v>38</v>
-      </c>
+      <c r="E30" s="64"/>
       <c r="F30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="41"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="39"/>
+      <c r="J30" s="89"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -10540,16 +10291,16 @@
       <c r="AO30" s="8"/>
     </row>
     <row r="31" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="40"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="40"/>
+      <c r="G31" s="47"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="40"/>
+      <c r="J31" s="47"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -10587,20 +10338,16 @@
         <v>14</v>
       </c>
       <c r="B32" s="43"/>
-      <c r="C32" s="92" t="s">
-        <v>44</v>
-      </c>
+      <c r="C32" s="65"/>
       <c r="D32" s="26"/>
-      <c r="E32" s="93" t="s">
-        <v>40</v>
-      </c>
+      <c r="E32" s="64"/>
       <c r="F32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="41"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="39"/>
+      <c r="J32" s="89"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -10634,16 +10381,16 @@
       <c r="AO32" s="8"/>
     </row>
     <row r="33" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
       <c r="D33" s="27"/>
-      <c r="E33" s="40"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="40"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="40"/>
+      <c r="J33" s="47"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -10681,16 +10428,16 @@
         <v>15</v>
       </c>
       <c r="B34" s="43"/>
-      <c r="C34" s="87"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="81"/>
+      <c r="E34" s="69"/>
       <c r="F34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="41"/>
+      <c r="G34" s="75"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="39"/>
+      <c r="J34" s="89"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -10724,16 +10471,16 @@
       <c r="AO34" s="8"/>
     </row>
     <row r="35" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A35" s="40"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="40"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="40"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="40"/>
+      <c r="J35" s="47"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -10771,16 +10518,16 @@
         <v>16</v>
       </c>
       <c r="B36" s="43"/>
-      <c r="C36" s="72"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="26"/>
       <c r="E36" s="43"/>
       <c r="F36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="41"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="39"/>
+      <c r="J36" s="89"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -10814,16 +10561,16 @@
       <c r="AO36" s="8"/>
     </row>
     <row r="37" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A37" s="40"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
       <c r="D37" s="27"/>
-      <c r="E37" s="40"/>
+      <c r="E37" s="47"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="40"/>
+      <c r="G37" s="47"/>
       <c r="H37" s="13"/>
       <c r="I37" s="21"/>
-      <c r="J37" s="40"/>
+      <c r="J37" s="47"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -10861,16 +10608,16 @@
         <v>17</v>
       </c>
       <c r="B38" s="43"/>
-      <c r="C38" s="72"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="26"/>
       <c r="E38" s="43"/>
       <c r="F38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="41"/>
+      <c r="G38" s="75"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="39"/>
+      <c r="J38" s="89"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -10904,16 +10651,16 @@
       <c r="AO38" s="8"/>
     </row>
     <row r="39" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A39" s="40"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
       <c r="D39" s="27"/>
-      <c r="E39" s="40"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="40"/>
+      <c r="G39" s="47"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="40"/>
+      <c r="J39" s="47"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -10951,16 +10698,16 @@
         <v>18</v>
       </c>
       <c r="B40" s="43"/>
-      <c r="C40" s="72"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="26"/>
       <c r="E40" s="43"/>
       <c r="F40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="41"/>
+      <c r="G40" s="75"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
-      <c r="J40" s="39"/>
+      <c r="J40" s="89"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -10994,16 +10741,16 @@
       <c r="AO40" s="8"/>
     </row>
     <row r="41" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A41" s="40"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
       <c r="D41" s="27"/>
-      <c r="E41" s="40"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="40"/>
+      <c r="G41" s="47"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="40"/>
+      <c r="J41" s="47"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -11041,16 +10788,16 @@
         <v>19</v>
       </c>
       <c r="B42" s="43"/>
-      <c r="C42" s="72"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="26"/>
       <c r="E42" s="43"/>
       <c r="F42" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="41"/>
+      <c r="G42" s="75"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="39"/>
+      <c r="J42" s="89"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -11084,16 +10831,16 @@
       <c r="AO42" s="8"/>
     </row>
     <row r="43" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A43" s="40"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
       <c r="D43" s="27"/>
-      <c r="E43" s="40"/>
+      <c r="E43" s="47"/>
       <c r="F43" s="44"/>
-      <c r="G43" s="40"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="40"/>
+      <c r="J43" s="47"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -11130,17 +10877,17 @@
       <c r="A44" s="43">
         <v>20</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="66"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="16"/>
       <c r="E44" s="43"/>
       <c r="F44" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="41"/>
+      <c r="G44" s="75"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="39"/>
+      <c r="J44" s="89"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -11174,16 +10921,16 @@
       <c r="AO44" s="8"/>
     </row>
     <row r="45" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A45" s="40"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="40"/>
+      <c r="E45" s="47"/>
       <c r="F45" s="44"/>
-      <c r="G45" s="40"/>
+      <c r="G45" s="47"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="40"/>
+      <c r="J45" s="47"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -11221,16 +10968,16 @@
         <v>21</v>
       </c>
       <c r="B46" s="43"/>
-      <c r="C46" s="88"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="29"/>
       <c r="E46" s="43"/>
       <c r="F46" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="41"/>
+      <c r="G46" s="75"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="39"/>
+      <c r="J46" s="89"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -11264,16 +11011,16 @@
       <c r="AO46" s="8"/>
     </row>
     <row r="47" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="40"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="44"/>
-      <c r="G47" s="40"/>
+      <c r="G47" s="47"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
-      <c r="J47" s="40"/>
+      <c r="J47" s="47"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
@@ -11311,16 +11058,16 @@
         <v>22</v>
       </c>
       <c r="B48" s="43"/>
-      <c r="C48" s="88"/>
+      <c r="C48" s="67"/>
       <c r="D48" s="29"/>
       <c r="E48" s="43"/>
       <c r="F48" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="41"/>
+      <c r="G48" s="75"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
-      <c r="J48" s="39"/>
+      <c r="J48" s="89"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
@@ -11354,16 +11101,16 @@
       <c r="AO48" s="8"/>
     </row>
     <row r="49" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="40"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="44"/>
-      <c r="G49" s="40"/>
+      <c r="G49" s="47"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="40"/>
+      <c r="J49" s="47"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -11400,17 +11147,17 @@
       <c r="A50" s="43">
         <v>23</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="66"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="16"/>
       <c r="E50" s="43"/>
       <c r="F50" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G50" s="41"/>
+      <c r="G50" s="75"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="39"/>
+      <c r="J50" s="89"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
@@ -11444,16 +11191,16 @@
       <c r="AO50" s="8"/>
     </row>
     <row r="51" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A51" s="40"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
       <c r="D51" s="15"/>
-      <c r="E51" s="40"/>
+      <c r="E51" s="47"/>
       <c r="F51" s="44"/>
-      <c r="G51" s="40"/>
+      <c r="G51" s="47"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="40"/>
+      <c r="J51" s="47"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
@@ -11490,17 +11237,17 @@
       <c r="A52" s="43">
         <v>24</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="66"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="16"/>
       <c r="E52" s="43"/>
       <c r="F52" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="41"/>
+      <c r="G52" s="75"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
-      <c r="J52" s="39"/>
+      <c r="J52" s="89"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
@@ -11534,16 +11281,16 @@
       <c r="AO52" s="8"/>
     </row>
     <row r="53" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A53" s="40"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="15"/>
-      <c r="E53" s="40"/>
+      <c r="E53" s="47"/>
       <c r="F53" s="44"/>
-      <c r="G53" s="40"/>
+      <c r="G53" s="47"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="40"/>
+      <c r="J53" s="47"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
@@ -11580,17 +11327,17 @@
       <c r="A54" s="43">
         <v>25</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="66"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="16"/>
       <c r="E54" s="43"/>
       <c r="F54" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="41"/>
+      <c r="G54" s="75"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="39"/>
+      <c r="J54" s="89"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
@@ -11624,16 +11371,16 @@
       <c r="AO54" s="8"/>
     </row>
     <row r="55" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A55" s="40"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="15"/>
-      <c r="E55" s="40"/>
+      <c r="E55" s="47"/>
       <c r="F55" s="44"/>
-      <c r="G55" s="40"/>
+      <c r="G55" s="47"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="40"/>
+      <c r="J55" s="47"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
@@ -11670,17 +11417,17 @@
       <c r="A56" s="43">
         <v>26</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="66"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="55"/>
       <c r="D56" s="16"/>
       <c r="E56" s="43"/>
       <c r="F56" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="41"/>
+      <c r="G56" s="75"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="39"/>
+      <c r="J56" s="89"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
@@ -11714,16 +11461,16 @@
       <c r="AO56" s="8"/>
     </row>
     <row r="57" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A57" s="40"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
       <c r="D57" s="15"/>
-      <c r="E57" s="40"/>
+      <c r="E57" s="47"/>
       <c r="F57" s="44"/>
-      <c r="G57" s="40"/>
+      <c r="G57" s="47"/>
       <c r="H57" s="12"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="40"/>
+      <c r="J57" s="47"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
@@ -11761,16 +11508,16 @@
         <v>27</v>
       </c>
       <c r="B58" s="43"/>
-      <c r="C58" s="72"/>
+      <c r="C58" s="58"/>
       <c r="D58" s="26"/>
       <c r="E58" s="43"/>
       <c r="F58" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="41"/>
+      <c r="G58" s="75"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="39"/>
+      <c r="J58" s="89"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
@@ -11804,16 +11551,16 @@
       <c r="AO58" s="8"/>
     </row>
     <row r="59" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A59" s="40"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
       <c r="D59" s="27"/>
-      <c r="E59" s="40"/>
+      <c r="E59" s="47"/>
       <c r="F59" s="44"/>
-      <c r="G59" s="40"/>
+      <c r="G59" s="47"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
-      <c r="J59" s="40"/>
+      <c r="J59" s="47"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
@@ -11851,16 +11598,16 @@
         <v>28</v>
       </c>
       <c r="B60" s="43"/>
-      <c r="C60" s="72"/>
+      <c r="C60" s="58"/>
       <c r="D60" s="26"/>
       <c r="E60" s="43"/>
       <c r="F60" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="41"/>
+      <c r="G60" s="75"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="39"/>
+      <c r="J60" s="89"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
@@ -11894,16 +11641,16 @@
       <c r="AO60" s="8"/>
     </row>
     <row r="61" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A61" s="40"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
       <c r="D61" s="27"/>
-      <c r="E61" s="40"/>
+      <c r="E61" s="47"/>
       <c r="F61" s="44"/>
-      <c r="G61" s="40"/>
+      <c r="G61" s="47"/>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="40"/>
+      <c r="J61" s="47"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
@@ -11941,16 +11688,16 @@
         <v>29</v>
       </c>
       <c r="B62" s="43"/>
-      <c r="C62" s="72"/>
+      <c r="C62" s="58"/>
       <c r="D62" s="26"/>
       <c r="E62" s="43"/>
       <c r="F62" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="41"/>
+      <c r="G62" s="75"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
-      <c r="J62" s="39"/>
+      <c r="J62" s="89"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
@@ -11984,16 +11731,16 @@
       <c r="AO62" s="8"/>
     </row>
     <row r="63" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A63" s="40"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
       <c r="D63" s="27"/>
-      <c r="E63" s="69"/>
+      <c r="E63" s="48"/>
       <c r="F63" s="44"/>
-      <c r="G63" s="40"/>
+      <c r="G63" s="47"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="40"/>
+      <c r="J63" s="47"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
@@ -12031,16 +11778,16 @@
         <v>30</v>
       </c>
       <c r="B64" s="43"/>
-      <c r="C64" s="77"/>
+      <c r="C64" s="49"/>
       <c r="D64" s="26"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="47" t="s">
+      <c r="E64" s="76"/>
+      <c r="F64" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="41"/>
+      <c r="G64" s="75"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
-      <c r="J64" s="39"/>
+      <c r="J64" s="89"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
@@ -12074,16 +11821,16 @@
       <c r="AO64" s="8"/>
     </row>
     <row r="65" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A65" s="40"/>
+      <c r="A65" s="47"/>
       <c r="B65" s="44"/>
-      <c r="C65" s="78"/>
+      <c r="C65" s="50"/>
       <c r="D65" s="27"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="40"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="47"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="40"/>
+      <c r="J65" s="47"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
@@ -12121,16 +11868,16 @@
         <v>31</v>
       </c>
       <c r="B66" s="43"/>
-      <c r="C66" s="77"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="26"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="47" t="s">
+      <c r="E66" s="76"/>
+      <c r="F66" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="41"/>
+      <c r="G66" s="75"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
-      <c r="J66" s="39"/>
+      <c r="J66" s="89"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
@@ -12164,16 +11911,16 @@
       <c r="AO66" s="8"/>
     </row>
     <row r="67" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A67" s="40"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="44"/>
-      <c r="C67" s="78"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="27"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="40"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="47"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
-      <c r="J67" s="40"/>
+      <c r="J67" s="47"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
@@ -12211,16 +11958,16 @@
         <v>32</v>
       </c>
       <c r="B68" s="43"/>
-      <c r="C68" s="77"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="26"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="47" t="s">
+      <c r="E68" s="76"/>
+      <c r="F68" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="41"/>
+      <c r="G68" s="75"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
-      <c r="J68" s="39"/>
+      <c r="J68" s="89"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
@@ -12254,16 +12001,16 @@
       <c r="AO68" s="8"/>
     </row>
     <row r="69" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A69" s="40"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="44"/>
-      <c r="C69" s="78"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="27"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="40"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="47"/>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
-      <c r="J69" s="40"/>
+      <c r="J69" s="47"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
@@ -12301,16 +12048,16 @@
         <v>33</v>
       </c>
       <c r="B70" s="43"/>
-      <c r="C70" s="77"/>
+      <c r="C70" s="49"/>
       <c r="D70" s="26"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="47" t="s">
+      <c r="E70" s="76"/>
+      <c r="F70" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="41"/>
+      <c r="G70" s="75"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="39"/>
+      <c r="J70" s="89"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
@@ -12344,16 +12091,16 @@
       <c r="AO70" s="8"/>
     </row>
     <row r="71" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A71" s="40"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="44"/>
-      <c r="C71" s="78"/>
+      <c r="C71" s="50"/>
       <c r="D71" s="27"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="40"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="47"/>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
-      <c r="J71" s="40"/>
+      <c r="J71" s="47"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
@@ -12391,16 +12138,16 @@
         <v>34</v>
       </c>
       <c r="B72" s="43"/>
-      <c r="C72" s="77"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="26"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="47" t="s">
+      <c r="E72" s="51"/>
+      <c r="F72" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="41"/>
+      <c r="G72" s="75"/>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
-      <c r="J72" s="39"/>
+      <c r="J72" s="89"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
@@ -12434,16 +12181,16 @@
       <c r="AO72" s="8"/>
     </row>
     <row r="73" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A73" s="40"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="44"/>
-      <c r="C73" s="78"/>
+      <c r="C73" s="50"/>
       <c r="D73" s="27"/>
-      <c r="E73" s="91"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="40"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="47"/>
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
-      <c r="J73" s="40"/>
+      <c r="J73" s="47"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
@@ -12481,16 +12228,16 @@
         <v>35</v>
       </c>
       <c r="B74" s="43"/>
-      <c r="C74" s="77"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="26"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="47" t="s">
+      <c r="E74" s="51"/>
+      <c r="F74" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="41"/>
+      <c r="G74" s="75"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
-      <c r="J74" s="39"/>
+      <c r="J74" s="89"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
@@ -12524,16 +12271,16 @@
       <c r="AO74" s="8"/>
     </row>
     <row r="75" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A75" s="40"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="44"/>
-      <c r="C75" s="78"/>
+      <c r="C75" s="50"/>
       <c r="D75" s="27"/>
-      <c r="E75" s="91"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="40"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="47"/>
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
-      <c r="J75" s="40"/>
+      <c r="J75" s="47"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
@@ -12570,17 +12317,17 @@
       <c r="A76" s="43">
         <v>36</v>
       </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="66"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="55"/>
       <c r="D76" s="26"/>
-      <c r="E76" s="89"/>
+      <c r="E76" s="68"/>
       <c r="F76" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="41"/>
+      <c r="G76" s="75"/>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
-      <c r="J76" s="39"/>
+      <c r="J76" s="89"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
@@ -12614,16 +12361,16 @@
       <c r="AO76" s="8"/>
     </row>
     <row r="77" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A77" s="40"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
       <c r="D77" s="27"/>
-      <c r="E77" s="40"/>
+      <c r="E77" s="47"/>
       <c r="F77" s="44"/>
-      <c r="G77" s="40"/>
+      <c r="G77" s="47"/>
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
-      <c r="J77" s="40"/>
+      <c r="J77" s="47"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
@@ -12661,16 +12408,16 @@
         <v>37</v>
       </c>
       <c r="B78" s="43"/>
-      <c r="C78" s="72"/>
+      <c r="C78" s="58"/>
       <c r="D78" s="26"/>
       <c r="E78" s="43"/>
       <c r="F78" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="41"/>
+      <c r="G78" s="75"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
-      <c r="J78" s="39"/>
+      <c r="J78" s="89"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
@@ -12704,16 +12451,16 @@
       <c r="AO78" s="8"/>
     </row>
     <row r="79" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A79" s="40"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
       <c r="D79" s="27"/>
-      <c r="E79" s="40"/>
+      <c r="E79" s="47"/>
       <c r="F79" s="44"/>
-      <c r="G79" s="40"/>
+      <c r="G79" s="47"/>
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
-      <c r="J79" s="40"/>
+      <c r="J79" s="47"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
@@ -12751,16 +12498,16 @@
         <v>38</v>
       </c>
       <c r="B80" s="43"/>
-      <c r="C80" s="72"/>
+      <c r="C80" s="58"/>
       <c r="D80" s="26"/>
       <c r="E80" s="43"/>
       <c r="F80" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="41"/>
+      <c r="G80" s="75"/>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
-      <c r="J80" s="39"/>
+      <c r="J80" s="89"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
@@ -12794,16 +12541,16 @@
       <c r="AO80" s="8"/>
     </row>
     <row r="81" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A81" s="40"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
       <c r="D81" s="27"/>
-      <c r="E81" s="40"/>
+      <c r="E81" s="47"/>
       <c r="F81" s="44"/>
-      <c r="G81" s="40"/>
+      <c r="G81" s="47"/>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
-      <c r="J81" s="40"/>
+      <c r="J81" s="47"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
@@ -12841,16 +12588,16 @@
         <v>39</v>
       </c>
       <c r="B82" s="43"/>
-      <c r="C82" s="72"/>
+      <c r="C82" s="58"/>
       <c r="D82" s="26"/>
       <c r="E82" s="43"/>
       <c r="F82" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="41"/>
+      <c r="G82" s="75"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
-      <c r="J82" s="39"/>
+      <c r="J82" s="89"/>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -12884,16 +12631,16 @@
       <c r="AO82" s="8"/>
     </row>
     <row r="83" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A83" s="40"/>
+      <c r="A83" s="47"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
       <c r="D83" s="27"/>
-      <c r="E83" s="40"/>
+      <c r="E83" s="47"/>
       <c r="F83" s="44"/>
-      <c r="G83" s="40"/>
+      <c r="G83" s="47"/>
       <c r="H83" s="13"/>
       <c r="I83" s="12"/>
-      <c r="J83" s="40"/>
+      <c r="J83" s="47"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
@@ -12931,16 +12678,16 @@
         <v>40</v>
       </c>
       <c r="B84" s="43"/>
-      <c r="C84" s="72"/>
+      <c r="C84" s="58"/>
       <c r="D84" s="26"/>
       <c r="E84" s="43"/>
       <c r="F84" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="41"/>
+      <c r="G84" s="75"/>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
-      <c r="J84" s="39"/>
+      <c r="J84" s="89"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
@@ -12974,16 +12721,16 @@
       <c r="AO84" s="8"/>
     </row>
     <row r="85" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A85" s="40"/>
+      <c r="A85" s="47"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
       <c r="D85" s="27"/>
-      <c r="E85" s="40"/>
+      <c r="E85" s="47"/>
       <c r="F85" s="44"/>
-      <c r="G85" s="40"/>
+      <c r="G85" s="47"/>
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
-      <c r="J85" s="40"/>
+      <c r="J85" s="47"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
@@ -13021,16 +12768,16 @@
         <v>41</v>
       </c>
       <c r="B86" s="43"/>
-      <c r="C86" s="72"/>
+      <c r="C86" s="58"/>
       <c r="D86" s="26"/>
       <c r="E86" s="43"/>
       <c r="F86" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="41"/>
+      <c r="G86" s="75"/>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
-      <c r="J86" s="39"/>
+      <c r="J86" s="89"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
@@ -13064,16 +12811,16 @@
       <c r="AO86" s="8"/>
     </row>
     <row r="87" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A87" s="40"/>
+      <c r="A87" s="47"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
       <c r="D87" s="27"/>
-      <c r="E87" s="40"/>
+      <c r="E87" s="47"/>
       <c r="F87" s="44"/>
-      <c r="G87" s="40"/>
+      <c r="G87" s="47"/>
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
-      <c r="J87" s="40"/>
+      <c r="J87" s="47"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
@@ -13110,17 +12857,17 @@
       <c r="A88" s="43">
         <v>42</v>
       </c>
-      <c r="B88" s="47"/>
-      <c r="C88" s="76"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="79"/>
       <c r="D88" s="26"/>
-      <c r="E88" s="51"/>
+      <c r="E88" s="61"/>
       <c r="F88" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G88" s="41"/>
+      <c r="G88" s="75"/>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
-      <c r="J88" s="39"/>
+      <c r="J88" s="89"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
@@ -13154,16 +12901,16 @@
       <c r="AO88" s="8"/>
     </row>
     <row r="89" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A89" s="40"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="48"/>
+      <c r="A89" s="47"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
       <c r="D89" s="27"/>
-      <c r="E89" s="48"/>
+      <c r="E89" s="42"/>
       <c r="F89" s="44"/>
-      <c r="G89" s="40"/>
+      <c r="G89" s="47"/>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
-      <c r="J89" s="40"/>
+      <c r="J89" s="47"/>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
       <c r="M89" s="8"/>
@@ -13200,17 +12947,17 @@
       <c r="A90" s="43">
         <v>43</v>
       </c>
-      <c r="B90" s="47"/>
-      <c r="C90" s="75"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="78"/>
       <c r="D90" s="26"/>
       <c r="E90" s="43"/>
       <c r="F90" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G90" s="41"/>
+      <c r="G90" s="75"/>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
-      <c r="J90" s="39"/>
+      <c r="J90" s="89"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
@@ -13244,16 +12991,16 @@
       <c r="AO90" s="8"/>
     </row>
     <row r="91" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A91" s="40"/>
-      <c r="B91" s="48"/>
-      <c r="C91" s="74"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="54"/>
       <c r="D91" s="27"/>
-      <c r="E91" s="40"/>
+      <c r="E91" s="47"/>
       <c r="F91" s="44"/>
-      <c r="G91" s="40"/>
+      <c r="G91" s="47"/>
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
-      <c r="J91" s="40"/>
+      <c r="J91" s="47"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
@@ -13291,16 +13038,16 @@
         <v>44</v>
       </c>
       <c r="B92" s="43"/>
-      <c r="C92" s="75"/>
+      <c r="C92" s="78"/>
       <c r="D92" s="26"/>
       <c r="E92" s="43"/>
       <c r="F92" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G92" s="41"/>
+      <c r="G92" s="75"/>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
-      <c r="J92" s="39"/>
+      <c r="J92" s="89"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
@@ -13334,16 +13081,16 @@
       <c r="AO92" s="8"/>
     </row>
     <row r="93" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A93" s="40"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="44"/>
-      <c r="C93" s="74"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="27"/>
-      <c r="E93" s="40"/>
+      <c r="E93" s="47"/>
       <c r="F93" s="44"/>
-      <c r="G93" s="40"/>
+      <c r="G93" s="47"/>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
-      <c r="J93" s="40"/>
+      <c r="J93" s="47"/>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
       <c r="M93" s="8"/>
@@ -13381,16 +13128,16 @@
         <v>45</v>
       </c>
       <c r="B94" s="43"/>
-      <c r="C94" s="73"/>
+      <c r="C94" s="53"/>
       <c r="D94" s="26"/>
       <c r="E94" s="43"/>
       <c r="F94" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G94" s="41"/>
+      <c r="G94" s="75"/>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
-      <c r="J94" s="39"/>
+      <c r="J94" s="89"/>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
       <c r="M94" s="8"/>
@@ -13424,16 +13171,16 @@
       <c r="AO94" s="8"/>
     </row>
     <row r="95" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A95" s="40"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="44"/>
-      <c r="C95" s="74"/>
+      <c r="C95" s="54"/>
       <c r="D95" s="27"/>
-      <c r="E95" s="40"/>
+      <c r="E95" s="47"/>
       <c r="F95" s="44"/>
-      <c r="G95" s="40"/>
+      <c r="G95" s="47"/>
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
-      <c r="J95" s="40"/>
+      <c r="J95" s="47"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
@@ -13471,16 +13218,16 @@
         <v>46</v>
       </c>
       <c r="B96" s="43"/>
-      <c r="C96" s="73"/>
+      <c r="C96" s="53"/>
       <c r="D96" s="26"/>
       <c r="E96" s="43"/>
       <c r="F96" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G96" s="41"/>
+      <c r="G96" s="75"/>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
-      <c r="J96" s="39"/>
+      <c r="J96" s="89"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
@@ -13514,16 +13261,16 @@
       <c r="AO96" s="8"/>
     </row>
     <row r="97" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A97" s="40"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="44"/>
-      <c r="C97" s="74"/>
+      <c r="C97" s="54"/>
       <c r="D97" s="27"/>
-      <c r="E97" s="40"/>
+      <c r="E97" s="47"/>
       <c r="F97" s="44"/>
-      <c r="G97" s="40"/>
+      <c r="G97" s="47"/>
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
-      <c r="J97" s="40"/>
+      <c r="J97" s="47"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
@@ -13561,16 +13308,16 @@
         <v>47</v>
       </c>
       <c r="B98" s="43"/>
-      <c r="C98" s="73"/>
+      <c r="C98" s="53"/>
       <c r="D98" s="26"/>
       <c r="E98" s="43"/>
       <c r="F98" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G98" s="41"/>
+      <c r="G98" s="75"/>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
-      <c r="J98" s="39"/>
+      <c r="J98" s="89"/>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
@@ -13604,16 +13351,16 @@
       <c r="AO98" s="8"/>
     </row>
     <row r="99" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A99" s="40"/>
+      <c r="A99" s="47"/>
       <c r="B99" s="44"/>
-      <c r="C99" s="74"/>
+      <c r="C99" s="54"/>
       <c r="D99" s="27"/>
-      <c r="E99" s="40"/>
+      <c r="E99" s="47"/>
       <c r="F99" s="44"/>
-      <c r="G99" s="40"/>
+      <c r="G99" s="47"/>
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
-      <c r="J99" s="40"/>
+      <c r="J99" s="47"/>
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
@@ -13651,16 +13398,16 @@
         <v>48</v>
       </c>
       <c r="B100" s="43"/>
-      <c r="C100" s="61"/>
+      <c r="C100" s="56"/>
       <c r="D100" s="30"/>
-      <c r="E100" s="47"/>
+      <c r="E100" s="41"/>
       <c r="F100" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G100" s="41"/>
+      <c r="G100" s="75"/>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
-      <c r="J100" s="39"/>
+      <c r="J100" s="89"/>
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
@@ -13694,16 +13441,16 @@
       <c r="AO100" s="8"/>
     </row>
     <row r="101" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A101" s="40"/>
+      <c r="A101" s="47"/>
       <c r="B101" s="44"/>
-      <c r="C101" s="62"/>
+      <c r="C101" s="57"/>
       <c r="D101" s="31"/>
-      <c r="E101" s="46"/>
+      <c r="E101" s="62"/>
       <c r="F101" s="44"/>
-      <c r="G101" s="40"/>
+      <c r="G101" s="47"/>
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
-      <c r="J101" s="40"/>
+      <c r="J101" s="47"/>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
@@ -13741,16 +13488,16 @@
         <v>49</v>
       </c>
       <c r="B102" s="43"/>
-      <c r="C102" s="61"/>
+      <c r="C102" s="56"/>
       <c r="D102" s="32"/>
-      <c r="E102" s="47"/>
+      <c r="E102" s="41"/>
       <c r="F102" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G102" s="41"/>
+      <c r="G102" s="75"/>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
-      <c r="J102" s="39"/>
+      <c r="J102" s="89"/>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
@@ -13784,16 +13531,16 @@
       <c r="AO102" s="8"/>
     </row>
     <row r="103" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A103" s="40"/>
+      <c r="A103" s="47"/>
       <c r="B103" s="44"/>
-      <c r="C103" s="62"/>
+      <c r="C103" s="57"/>
       <c r="D103" s="33"/>
-      <c r="E103" s="46"/>
+      <c r="E103" s="62"/>
       <c r="F103" s="44"/>
-      <c r="G103" s="40"/>
+      <c r="G103" s="47"/>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
-      <c r="J103" s="40"/>
+      <c r="J103" s="47"/>
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
@@ -13831,16 +13578,16 @@
         <v>50</v>
       </c>
       <c r="B104" s="43"/>
-      <c r="C104" s="61"/>
+      <c r="C104" s="56"/>
       <c r="D104" s="32"/>
-      <c r="E104" s="47"/>
+      <c r="E104" s="41"/>
       <c r="F104" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G104" s="41"/>
+      <c r="G104" s="75"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
-      <c r="J104" s="39"/>
+      <c r="J104" s="89"/>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
@@ -13874,16 +13621,16 @@
       <c r="AO104" s="8"/>
     </row>
     <row r="105" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A105" s="40"/>
-      <c r="B105" s="69"/>
-      <c r="C105" s="62"/>
+      <c r="A105" s="47"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="57"/>
       <c r="D105" s="33"/>
-      <c r="E105" s="48"/>
+      <c r="E105" s="42"/>
       <c r="F105" s="44"/>
-      <c r="G105" s="40"/>
+      <c r="G105" s="47"/>
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
-      <c r="J105" s="40"/>
+      <c r="J105" s="47"/>
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
@@ -13920,17 +13667,17 @@
       <c r="A106" s="43">
         <v>51</v>
       </c>
-      <c r="B106" s="56"/>
-      <c r="C106" s="63"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="88"/>
       <c r="D106" s="34"/>
-      <c r="E106" s="85"/>
-      <c r="F106" s="47" t="s">
+      <c r="E106" s="72"/>
+      <c r="F106" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="41"/>
+      <c r="G106" s="75"/>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
-      <c r="J106" s="39"/>
+      <c r="J106" s="89"/>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
@@ -13964,16 +13711,16 @@
       <c r="AO106" s="8"/>
     </row>
     <row r="107" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A107" s="40"/>
-      <c r="B107" s="69"/>
-      <c r="C107" s="62"/>
+      <c r="A107" s="47"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="57"/>
       <c r="D107" s="33"/>
-      <c r="E107" s="86"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="40"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="47"/>
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
-      <c r="J107" s="40"/>
+      <c r="J107" s="47"/>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
@@ -14010,17 +13757,17 @@
       <c r="A108" s="43">
         <v>52</v>
       </c>
-      <c r="B108" s="79"/>
-      <c r="C108" s="64"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="59"/>
       <c r="D108" s="37"/>
-      <c r="E108" s="79"/>
-      <c r="F108" s="58" t="s">
+      <c r="E108" s="45"/>
+      <c r="F108" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="G108" s="53"/>
+      <c r="G108" s="87"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
-      <c r="J108" s="39"/>
+      <c r="J108" s="89"/>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
@@ -14054,16 +13801,16 @@
       <c r="AO108" s="8"/>
     </row>
     <row r="109" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A109" s="40"/>
-      <c r="B109" s="80"/>
-      <c r="C109" s="65"/>
+      <c r="A109" s="47"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="60"/>
       <c r="D109" s="36"/>
-      <c r="E109" s="80"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="46"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="86"/>
+      <c r="G109" s="62"/>
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
-      <c r="J109" s="40"/>
+      <c r="J109" s="47"/>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
@@ -14100,17 +13847,17 @@
       <c r="A110" s="43">
         <v>53</v>
       </c>
-      <c r="B110" s="79"/>
-      <c r="C110" s="64"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="59"/>
       <c r="D110" s="37"/>
-      <c r="E110" s="79"/>
-      <c r="F110" s="58" t="s">
+      <c r="E110" s="45"/>
+      <c r="F110" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="G110" s="53"/>
+      <c r="G110" s="87"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
-      <c r="J110" s="39"/>
+      <c r="J110" s="89"/>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
@@ -14144,16 +13891,16 @@
       <c r="AO110" s="8"/>
     </row>
     <row r="111" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A111" s="40"/>
-      <c r="B111" s="80"/>
-      <c r="C111" s="65"/>
+      <c r="A111" s="47"/>
+      <c r="B111" s="46"/>
+      <c r="C111" s="60"/>
       <c r="D111" s="36"/>
-      <c r="E111" s="80"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="46"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="86"/>
+      <c r="G111" s="62"/>
       <c r="H111" s="13"/>
       <c r="I111" s="13"/>
-      <c r="J111" s="40"/>
+      <c r="J111" s="47"/>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
@@ -14190,17 +13937,17 @@
       <c r="A112" s="43">
         <v>54</v>
       </c>
-      <c r="B112" s="79"/>
-      <c r="C112" s="64"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="59"/>
       <c r="D112" s="37"/>
-      <c r="E112" s="79"/>
-      <c r="F112" s="58" t="s">
+      <c r="E112" s="45"/>
+      <c r="F112" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="G112" s="53"/>
+      <c r="G112" s="87"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
-      <c r="J112" s="39"/>
+      <c r="J112" s="89"/>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
@@ -14234,16 +13981,16 @@
       <c r="AO112" s="8"/>
     </row>
     <row r="113" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A113" s="40"/>
-      <c r="B113" s="80"/>
-      <c r="C113" s="65"/>
+      <c r="A113" s="47"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="60"/>
       <c r="D113" s="36"/>
-      <c r="E113" s="80"/>
-      <c r="F113" s="59"/>
-      <c r="G113" s="46"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="86"/>
+      <c r="G113" s="62"/>
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
-      <c r="J113" s="40"/>
+      <c r="J113" s="47"/>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
@@ -14280,17 +14027,17 @@
       <c r="A114" s="43">
         <v>55</v>
       </c>
-      <c r="B114" s="79"/>
-      <c r="C114" s="64"/>
+      <c r="B114" s="45"/>
+      <c r="C114" s="59"/>
       <c r="D114" s="37"/>
-      <c r="E114" s="79"/>
-      <c r="F114" s="58" t="s">
+      <c r="E114" s="45"/>
+      <c r="F114" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="G114" s="53"/>
+      <c r="G114" s="87"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
-      <c r="J114" s="39"/>
+      <c r="J114" s="89"/>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
@@ -14324,16 +14071,16 @@
       <c r="AO114" s="8"/>
     </row>
     <row r="115" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A115" s="40"/>
-      <c r="B115" s="80"/>
-      <c r="C115" s="65"/>
+      <c r="A115" s="47"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="60"/>
       <c r="D115" s="36"/>
-      <c r="E115" s="80"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="46"/>
+      <c r="E115" s="46"/>
+      <c r="F115" s="86"/>
+      <c r="G115" s="62"/>
       <c r="H115" s="13"/>
       <c r="I115" s="13"/>
-      <c r="J115" s="40"/>
+      <c r="J115" s="47"/>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
       <c r="M115" s="8"/>
@@ -14370,17 +14117,17 @@
       <c r="A116" s="43">
         <v>56</v>
       </c>
-      <c r="B116" s="79"/>
-      <c r="C116" s="64"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="59"/>
       <c r="D116" s="37"/>
-      <c r="E116" s="79"/>
-      <c r="F116" s="58" t="s">
+      <c r="E116" s="45"/>
+      <c r="F116" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="G116" s="53"/>
+      <c r="G116" s="87"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
-      <c r="J116" s="39"/>
+      <c r="J116" s="89"/>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
       <c r="M116" s="8"/>
@@ -14414,16 +14161,16 @@
       <c r="AO116" s="8"/>
     </row>
     <row r="117" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A117" s="40"/>
-      <c r="B117" s="80"/>
-      <c r="C117" s="65"/>
+      <c r="A117" s="47"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="60"/>
       <c r="D117" s="36"/>
-      <c r="E117" s="48"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="48"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="84"/>
+      <c r="G117" s="42"/>
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
-      <c r="J117" s="40"/>
+      <c r="J117" s="47"/>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
@@ -14460,17 +14207,17 @@
       <c r="A118" s="43">
         <v>57</v>
       </c>
-      <c r="B118" s="51"/>
-      <c r="C118" s="62"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="57"/>
       <c r="D118" s="33"/>
-      <c r="E118" s="83"/>
-      <c r="F118" s="56" t="s">
+      <c r="E118" s="70"/>
+      <c r="F118" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="G118" s="70"/>
+      <c r="G118" s="92"/>
       <c r="H118" s="38"/>
       <c r="I118" s="12"/>
-      <c r="J118" s="39"/>
+      <c r="J118" s="89"/>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
@@ -14504,16 +14251,16 @@
       <c r="AO118" s="8"/>
     </row>
     <row r="119" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A119" s="40"/>
-      <c r="B119" s="46"/>
-      <c r="C119" s="82"/>
+      <c r="A119" s="47"/>
+      <c r="B119" s="62"/>
+      <c r="C119" s="63"/>
       <c r="D119" s="35"/>
-      <c r="E119" s="84"/>
-      <c r="F119" s="57"/>
-      <c r="G119" s="59"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="85"/>
+      <c r="G119" s="86"/>
       <c r="H119" s="38"/>
       <c r="I119" s="13"/>
-      <c r="J119" s="40"/>
+      <c r="J119" s="47"/>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
       <c r="M119" s="8"/>
@@ -14550,17 +14297,17 @@
       <c r="A120" s="43">
         <v>58</v>
       </c>
-      <c r="B120" s="51"/>
-      <c r="C120" s="62"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="57"/>
       <c r="D120" s="33"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="56" t="s">
+      <c r="E120" s="61"/>
+      <c r="F120" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="G120" s="55"/>
+      <c r="G120" s="91"/>
       <c r="H120" s="22"/>
       <c r="I120" s="22"/>
-      <c r="J120" s="60"/>
+      <c r="J120" s="90"/>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
       <c r="M120" s="8"/>
@@ -14594,16 +14341,16 @@
       <c r="AO120" s="8"/>
     </row>
     <row r="121" spans="1:41" ht="12.75" customHeight="1">
-      <c r="A121" s="40"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="82"/>
+      <c r="A121" s="47"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="63"/>
       <c r="D121" s="36"/>
-      <c r="E121" s="46"/>
-      <c r="F121" s="57"/>
-      <c r="G121" s="40"/>
+      <c r="E121" s="62"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="47"/>
       <c r="H121" s="23"/>
       <c r="I121" s="23"/>
-      <c r="J121" s="46"/>
+      <c r="J121" s="62"/>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
       <c r="M121" s="8"/>
@@ -15502,35 +15249,352 @@
     <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="404">
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="J110:J111"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="C82:C83"/>
     <mergeCell ref="E86:E87"/>
     <mergeCell ref="E84:E85"/>
     <mergeCell ref="C74:C75"/>
@@ -15555,357 +15619,40 @@
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B98:B99"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="J118:J119"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="J114:J115"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="J106:J107"/>
-    <mergeCell ref="J110:J111"/>
-    <mergeCell ref="J112:J113"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="K8">
